--- a/dataset.xlsx
+++ b/dataset.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wwwgh\OneDrive - Lovely Professional University\Desktop\git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94817227-8E88-4785-BB65-25296173350F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBB989E8-90AB-4E8F-9E83-B5B26477669A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="12240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>name</t>
   </si>
@@ -43,6 +43,9 @@
   </si>
   <si>
     <t>animesh</t>
+  </si>
+  <si>
+    <t>gfdgfgcvc</t>
   </si>
 </sst>
 </file>
@@ -360,7 +363,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
@@ -399,6 +402,11 @@
         <v>100</v>
       </c>
     </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
